--- a/data/raw_data/Material_content_new.xlsx
+++ b/data/raw_data/Material_content_new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Data/Database/data/01_raw_data/Xi_et_al_model_2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E60ED-B6B7-FB4E-99D7-9B4F866C46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E22E1-D090-0C40-B5C5-B84CD83BE658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="500" windowWidth="43700" windowHeight="28300" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
+    <workbookView xWindow="15220" yWindow="500" windowWidth="43700" windowHeight="28300" activeTab="8" xr2:uid="{730E730F-0C19-714B-9567-4CAB8EE7D98A}"/>
   </bookViews>
   <sheets>
     <sheet name="kg per pack" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E4B10-72B2-B94C-A1FD-132D0925737D}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18112,7 +18112,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19829,8 +19829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519D7ED6-2302-9845-8693-BD9CC80CE476}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
